--- a/biology/Histoire de la zoologie et de la botanique/Gustav_Schwantes/Gustav_Schwantes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gustav_Schwantes/Gustav_Schwantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Heinrich Gustav Schwantes est un paléonthologue et botaniste allemand, né le 18 septembre 1881 près de Hanovre et mort le 17 novembre 1960.
 D'un point de vue botanique, il s'est surtout intéressé aux Mesembryanthemaceae.
@@ -512,7 +524,9 @@
           <t>Principales étapes de sa carrière [1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1923 : il obtient un doctorat en philosophie et travaille à la faculté de préhistoire de l'université de Hambourg où il obtient entre-temps un diplôme de botanique.
 1929 : exerce comme professeur de préhistoire à Kiel, où il rencontre Hermann Jacobsen, conservateur du jardin botanique, avec lequel il collaborera.
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
